--- a/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag.xlsx
@@ -34,18 +34,27 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
+    <t xml:space="preserve">40000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HotlineTest Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bengteth\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/11/2019 14:39:17</t>
+  </si>
+  <si>
     <t xml:space="preserve">4666</t>
   </si>
   <si>
     <t xml:space="preserve">CreditCardTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bengteth\administrator</t>
-  </si>
-  <si>
     <t xml:space="preserve">07/10/2019 12:33:33</t>
   </si>
   <si>
@@ -83,15 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">07/10/2019 12:37:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HotlineTest Updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2019 15:25:53</t>
   </si>
 </sst>
 </file>

--- a/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/VB Enrollment Flag.xlsx
@@ -91,10 +91,10 @@
     <t xml:space="preserve">HotlineTest Updated</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/08/2021 12:32:51</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 21:15:58</t>
   </si>
 </sst>
 </file>
